--- a/src/attributions/attributions_ig_traj_461.xlsx
+++ b/src/attributions/attributions_ig_traj_461.xlsx
@@ -1004,19 +1004,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0.1816118123677879</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1134672990715656</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01462654333858376</v>
+        <v>-0.008971160849015577</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1025,79 +1025,79 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0526446800154574</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0.06622123257660895</v>
       </c>
       <c r="J2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.2388488685395606</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1981251488676602</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01087811960669072</v>
+        <v>-0.03387585171200268</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1407657594709043</v>
+        <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0.1739274269504085</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.08207926619319912</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.01819303780525988</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.03078332173581328</v>
+        <v>0.01488449213085515</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.02355810514783812</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0</v>
+        <v>-0.01556085692234375</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0</v>
+        <v>0.07003987834066619</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.01018365214313318</v>
+        <v>-0</v>
       </c>
       <c r="AE2" t="n">
         <v>-0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.04024404062357447</v>
+        <v>-0.08537159619740835</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -1106,268 +1106,268 @@
         <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.01065584521641371</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>-0.004533030059460165</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0</v>
+        <v>0.05209229389396414</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.05719670483257241</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.06830940924006174</v>
+        <v>-0.06129650037999111</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0075041894814618</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-0.04066738366142107</v>
       </c>
       <c r="AT2" t="n">
         <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0</v>
+        <v>0.4142852264786511</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.1612898187566095</v>
+        <v>-0</v>
       </c>
       <c r="AW2" t="n">
         <v>-0</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.005353388672923762</v>
+        <v>0.2039206375235923</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.2131712348110265</v>
+        <v>-0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0.09003511548234532</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>0.005167538406497763</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.02690362425317479</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.0353624421532441</v>
+        <v>-0.04532541039124875</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.01538145647768548</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>0</v>
+        <v>-0.06956387874833801</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0.0122653260070152</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.05392266927176084</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
         <v>-0</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.06353811039675109</v>
+        <v>0.2118192311876466</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.08955864279510281</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0</v>
+        <v>0.06465433692098892</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.231881399721986</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0941575174954245</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.001183812826958666</v>
+        <v>0.0421490541407675</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.07161374690016009</v>
+        <v>-0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0</v>
+        <v>0.01469726276608578</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0.08503246934443796</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.06492168262026334</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
         <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.001994076271742782</v>
+        <v>-0.008462111312815391</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.04018203863701574</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0.07388177817483498</v>
       </c>
       <c r="CM2" t="n">
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>-0.01363350754015975</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.02558309903960989</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.05711170446058571</v>
+        <v>-0.07223360143889172</v>
       </c>
       <c r="CR2" t="n">
         <v>0</v>
       </c>
       <c r="CS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.03328058239197045</v>
+        <v>-0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0.003336584852491956</v>
       </c>
       <c r="CV2" t="n">
         <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>-0.0893669576858795</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.06441802557756772</v>
+        <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.02169062172869814</v>
+        <v>-0.01083585811035206</v>
       </c>
       <c r="DA2" t="n">
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.03613461715419092</v>
+        <v>-0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>0.05259673430570867</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0.1353091199769822</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.02950478235938568</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.083652482221432</v>
+        <v>0.07026383818103829</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.05710572173491083</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0</v>
+        <v>0.03508351778180755</v>
       </c>
       <c r="DN2" t="n">
         <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0.02756516248829915</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.02654359028006754</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.003854974177071873</v>
+        <v>-0.06174165309573929</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
@@ -1376,160 +1376,160 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.01479717657727249</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>-0.02041212436926091</v>
       </c>
       <c r="DW2" t="n">
         <v>-0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>-0.1784034462380596</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.008179041320223018</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
         <v>-0</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.02225345293866927</v>
+        <v>-0.003911349772598811</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.07884391920288925</v>
+        <v>-0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0</v>
+        <v>-0.03090759262664351</v>
       </c>
       <c r="EF2" t="n">
         <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0.04821544259998597</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.04830677273292455</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
         <v>0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.04975675280929005</v>
+        <v>0.03580433211111114</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.06381342015521134</v>
+        <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0</v>
+        <v>0.109557097581434</v>
       </c>
       <c r="EO2" t="n">
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0</v>
+        <v>-0.05411622552350438</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.01086833489840246</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.04651144490465643</v>
+        <v>-0.03576089583878649</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.02702546000758427</v>
+        <v>-0</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0</v>
+        <v>0.06195600393266686</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0.09594483267549388</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.06929930607264158</v>
+        <v>-0</v>
       </c>
       <c r="FA2" t="n">
         <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.01095387942661326</v>
+        <v>-0.00593440283610607</v>
       </c>
       <c r="FC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.03950571982411668</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0.0495195531523307</v>
       </c>
       <c r="FG2" t="n">
         <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>-0.02071437508056901</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.09006231352272867</v>
+        <v>-0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.002584310203712057</v>
+        <v>-0.05087263747160127</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.01504738311203602</v>
+        <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0</v>
+        <v>0.005621655468757766</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0</v>
+        <v>-0.002646909035361061</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.0226541212949927</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
         <v>-0</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.002096090861046522</v>
+        <v>0.00449708203870717</v>
       </c>
       <c r="FU2" t="n">
         <v>-0</v>
@@ -1538,37 +1538,37 @@
         <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.02615055278685902</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0</v>
+        <v>-0.04492909440631886</v>
       </c>
       <c r="FY2" t="n">
         <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0</v>
+        <v>-0.08219587385019794</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02614787855230341</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
         <v>-0</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.09250644410927671</v>
+        <v>-0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0.04333640168608897</v>
       </c>
     </row>
     <row r="3">
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1630,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
@@ -1738,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
         <v>0</v>
@@ -1792,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1927,10 +1927,10 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
         <v>0</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
@@ -1981,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
@@ -2035,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
         <v>0</v>
@@ -2145,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -2199,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -2226,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -2307,10 +2307,10 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
@@ -2334,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
         <v>0</v>
@@ -2550,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
         <v>0</v>
@@ -2604,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
         <v>0</v>
@@ -2658,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
         <v>0</v>
@@ -2711,28 +2711,28 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1262510535862631</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1802033343959594</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.03226565413842079</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02766542742909279</v>
+        <v>-0.01696167826590809</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0.109227115832669</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2741,22 +2741,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.1309350771853325</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2971344974999615</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.06772656472147387</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06312091475764618</v>
+        <v>-0.03443451634610976</v>
       </c>
       <c r="O5" t="n">
         <v>-0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0.1566713096834913</v>
       </c>
       <c r="Q5" t="n">
         <v>-0</v>
@@ -2765,52 +2765,52 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.07878493506336898</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04174506683936303</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02588933875150963</v>
+        <v>-0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.09084867818596869</v>
+        <v>0.1944426731467038</v>
       </c>
       <c r="X5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0</v>
+        <v>-0.09626842339764434</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB5" t="n">
         <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.1230583065680214</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.00373114806597658</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.008050022078670917</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.08203451794197966</v>
+        <v>-0.06309411125375507</v>
       </c>
       <c r="AG5" t="n">
         <v>-0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>-0.03084374328797608</v>
       </c>
       <c r="AI5" t="n">
         <v>-0</v>
@@ -2819,25 +2819,25 @@
         <v>-0</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>-0.02202373316597235</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.05019956210821873</v>
+        <v>-0</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0.0003319900459413962</v>
+        <v>-0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.04838559318433958</v>
+        <v>0.02505212132643837</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0</v>
+        <v>-0.03952379497557176</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2849,25 +2849,25 @@
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.241125566741312</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.1925551479781326</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.008805758255302944</v>
+        <v>-0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.06288980176294326</v>
+        <v>0.140778484499566</v>
       </c>
       <c r="AY5" t="n">
         <v>-0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>-0.2205091761694899</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
         <v>-0</v>
@@ -2876,25 +2876,25 @@
         <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0</v>
+        <v>0.0291782764981573</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.02665105288660558</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.02137760054782443</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.04409861964174094</v>
+        <v>-0.02872233271380907</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>-0.01641561536661126</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
@@ -2903,49 +2903,49 @@
         <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0</v>
+        <v>-0.0002144296732009935</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0.1134142219139405</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0.02400070894658374</v>
+        <v>0</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.1263426985518468</v>
+        <v>0.1603377952295417</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
-        <v>0</v>
+        <v>0.07114935421613679</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.08209443621780294</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.08126794785566158</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.02285506172093692</v>
+        <v>-0</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.0220377047619138</v>
+        <v>0.1188089401955444</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA5" t="n">
-        <v>0</v>
+        <v>-0.1224912516870273</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
@@ -2954,28 +2954,28 @@
         <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.05992915761416059</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0.07148598492745023</v>
+        <v>-0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.02714499556004772</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.01581474427834999</v>
+        <v>0.03096079943596695</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0</v>
+        <v>0.04113536106347546</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>-0</v>
@@ -2984,52 +2984,52 @@
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.08206244041965999</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.05869558746244221</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.02296654214779495</v>
+        <v>0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.02994211001670693</v>
+        <v>-0.04220223261178307</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0</v>
+        <v>-0.05487697016303376</v>
       </c>
       <c r="CT5" t="n">
         <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.03944880868741357</v>
       </c>
       <c r="CX5" t="n">
-        <v>-0.05602381578770968</v>
+        <v>0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.01987267620308512</v>
+        <v>-0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.007427379957842525</v>
+        <v>0.01411090062751609</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0.04887285090513219</v>
       </c>
       <c r="DC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
@@ -3038,22 +3038,22 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>-0</v>
+        <v>-0.07796460123791268</v>
       </c>
       <c r="DG5" t="n">
-        <v>-0.09468988898276384</v>
+        <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.0101321846164865</v>
+        <v>0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.0249253783162114</v>
+        <v>0.02960082966678804</v>
       </c>
       <c r="DJ5" t="n">
         <v>-0</v>
       </c>
       <c r="DK5" t="n">
-        <v>-0</v>
+        <v>0.03087557600887752</v>
       </c>
       <c r="DL5" t="n">
         <v>-0</v>
@@ -3062,106 +3062,106 @@
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>-0</v>
+        <v>-0.02440882727941355</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.02864859996450794</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0.004998966299213873</v>
+        <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.05516731141549958</v>
+        <v>0.02238777825180803</v>
       </c>
       <c r="DS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT5" t="n">
-        <v>-0</v>
+        <v>-0.02658845120364235</v>
       </c>
       <c r="DU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
         <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0</v>
+        <v>-0.1478390250858153</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0.03513025186690946</v>
+        <v>-0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.003686779222045988</v>
+        <v>-0</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.008955646386349546</v>
+        <v>-0.01256529868281661</v>
       </c>
       <c r="EB5" t="n">
         <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>0</v>
+        <v>0.03392567714725807</v>
       </c>
       <c r="ED5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF5" t="n">
         <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.01872956235901924</v>
       </c>
       <c r="EH5" t="n">
-        <v>-0.07036896513908462</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.05253957509521006</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.02316974357390001</v>
+        <v>0.03423260945404685</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>0.0622642695472763</v>
       </c>
       <c r="EM5" t="n">
         <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>-0</v>
+        <v>-0.03349999339743496</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0.0112864627710064</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.0007953654825193482</v>
+        <v>-0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.0176088626556886</v>
+        <v>0.004006028253440358</v>
       </c>
       <c r="ET5" t="n">
         <v>0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>0.01212027520140182</v>
       </c>
       <c r="EV5" t="n">
         <v>-0</v>
@@ -3170,28 +3170,28 @@
         <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.05277241359032947</v>
       </c>
       <c r="EZ5" t="n">
-        <v>-0.06051575461002547</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.02389931641658874</v>
+        <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.003718825429857463</v>
+        <v>0.02933621791350726</v>
       </c>
       <c r="FC5" t="n">
         <v>0</v>
       </c>
       <c r="FD5" t="n">
-        <v>-0</v>
+        <v>0.03874072374633281</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
         <v>-0</v>
@@ -3200,79 +3200,79 @@
         <v>-0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0.06218538781610873</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.08913200671592615</v>
+        <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.03082093412293994</v>
+        <v>0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.007585482781370416</v>
+        <v>-0.002589342603149922</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0.04114376033323494</v>
       </c>
       <c r="FN5" t="n">
         <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>-0</v>
+        <v>-0.006275112356073922</v>
       </c>
       <c r="FR5" t="n">
-        <v>5.240396731082455e-05</v>
+        <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0.007055003285995533</v>
+        <v>0</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.004108992530367185</v>
+        <v>0.008745164324567799</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV5" t="n">
-        <v>-0</v>
+        <v>0.02128369941709869</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.06586812633052286</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.04751583812130635</v>
+        <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.01676691864292297</v>
+        <v>-0</v>
       </c>
       <c r="GC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD5" t="n">
         <v>-0</v>
       </c>
       <c r="GE5" t="n">
-        <v>0</v>
+        <v>0.1828623923346668</v>
       </c>
       <c r="GF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG5" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3337,10 +3337,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -3364,10 +3364,10 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -3391,10 +3391,10 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
@@ -3418,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
@@ -3445,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
         <v>0</v>
@@ -3499,10 +3499,10 @@
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
         <v>0</v>
@@ -3526,10 +3526,10 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
         <v>0</v>
@@ -3607,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -3634,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
         <v>0</v>
@@ -3688,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI6" t="n">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA6" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS6" t="n">
         <v>0</v>
@@ -3849,25 +3849,25 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.7210860311459801</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.3561938788713459</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5814485970527075</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>-0.2093648612788099</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2189078962210534</v>
+        <v>0.006491830645778895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3876,22 +3876,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.7360595862567588</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.3425863317026235</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8801944337542018</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0</v>
+        <v>-0.2420623144133599</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04872036840607238</v>
+        <v>-0.01782361371406201</v>
       </c>
       <c r="O7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>-0</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03260504484471233</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.1698095852667296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1833526636851406</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0</v>
+        <v>-0.003678355541903125</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1698916769723381</v>
+        <v>0.1241535048226961</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
         <v>-0</v>
@@ -3930,19 +3930,19 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.04856878491798015</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.09105722622360875</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.123120306741735</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0</v>
+        <v>-0.009042153968061746</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.2179594620095844</v>
+        <v>-0.0570805785176987</v>
       </c>
       <c r="AG7" t="n">
         <v>-0</v>
@@ -3951,52 +3951,52 @@
         <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
         <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.2181742026229667</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0</v>
+        <v>0.00822410143930849</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.143975117517033</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0</v>
+        <v>-0.1214308954552848</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.003663281284656501</v>
+        <v>-0.0531769406314152</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0.6010932178628999</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0</v>
+        <v>0.4400818224139125</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.678173081284663</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0</v>
+        <v>-0.0418436786970461</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.1460986086519729</v>
+        <v>0.2252480424063985</v>
       </c>
       <c r="AY7" t="n">
         <v>-0</v>
@@ -4005,25 +4005,25 @@
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0.08201421250614022</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>0.02411106473710842</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.06927318120422095</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>-0.05317392412254936</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.1707252532654879</v>
+        <v>-0.06740018726236219</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
@@ -4032,28 +4032,28 @@
         <v>-0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK7" t="n">
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.1651035301391638</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.03015371605402557</v>
       </c>
       <c r="BN7" t="n">
-        <v>-0.2471535678165021</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0</v>
+        <v>0.05244598734308074</v>
       </c>
       <c r="BP7" t="n">
-        <v>-0.309123725316147</v>
+        <v>0.1829743356220767</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR7" t="n">
         <v>-0</v>
@@ -4062,76 +4062,76 @@
         <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>-0.541029528336416</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>-0</v>
+        <v>0.2058016086335462</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.3355260709015337</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>-0</v>
+        <v>0.02579478802984657</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.09469299000929006</v>
+        <v>0.1318752601863181</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA7" t="n">
         <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.2566329795552142</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>-0</v>
+        <v>-0.1099337473332938</v>
       </c>
       <c r="CF7" t="n">
-        <v>-0.1825816570142403</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>0.02458250494518266</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.04390312948135804</v>
+        <v>-0.0290971967494188</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
         <v>-0</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.05335722381494314</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>0.004781864178744051</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.07659228522280633</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0.1652687644090485</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.242358558949333</v>
+        <v>-0.1535734289989721</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4140,79 +4140,79 @@
         <v>-0</v>
       </c>
       <c r="CT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU7" t="n">
         <v>0</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.2176199997436326</v>
+        <v>-0</v>
       </c>
       <c r="CW7" t="n">
-        <v>0</v>
+        <v>-0.1016666405037144</v>
       </c>
       <c r="CX7" t="n">
-        <v>-0.162132772280582</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>0</v>
+        <v>0.05748812621578336</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.1501321714139893</v>
+        <v>-0.01887670091101827</v>
       </c>
       <c r="DA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD7" t="n">
         <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0.07464448146533133</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>-0</v>
+        <v>-0.1435265951183348</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0.3262806149280366</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0</v>
+        <v>-0.005301379174500657</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.002413451433761963</v>
+        <v>-0.02185486618278355</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
       </c>
       <c r="DK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
         <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.1076517194356703</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>-0</v>
+        <v>-0.01930335594717677</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.1160284188328656</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>-0.1034395124751792</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.170193998596763</v>
+        <v>-0.06937717261553171</v>
       </c>
       <c r="DS7" t="n">
         <v>0</v>
@@ -4221,25 +4221,25 @@
         <v>-0</v>
       </c>
       <c r="DU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.0109036252794309</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>0.0538120128486075</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.05001753660538154</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>0.01149759408282369</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.09485111144866508</v>
+        <v>-0.02139786954275834</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
@@ -4248,28 +4248,28 @@
         <v>0</v>
       </c>
       <c r="ED7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE7" t="n">
         <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.3617249790506843</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>-0</v>
+        <v>-0.1072186284226279</v>
       </c>
       <c r="EH7" t="n">
-        <v>-0.214911929449423</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0</v>
+        <v>0.0380931759527465</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.08619302407378397</v>
+        <v>0.080526113057247</v>
       </c>
       <c r="EK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL7" t="n">
         <v>-0</v>
@@ -4278,103 +4278,103 @@
         <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.05968702846949605</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>-0</v>
+        <v>-0.1041666885838893</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0.1774509910352735</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>0.07462981083725337</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.1694368333855402</v>
+        <v>0.00290782575919066</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
         <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.2499405558377527</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>-0</v>
+        <v>-0.1024802412484532</v>
       </c>
       <c r="EZ7" t="n">
-        <v>-0.1784927477685747</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0</v>
+        <v>0.03431644791390573</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.1124788073335969</v>
+        <v>-0.02945956859646489</v>
       </c>
       <c r="FC7" t="n">
         <v>0</v>
       </c>
       <c r="FD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
         <v>-0</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.240005578090263</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.001873037695619126</v>
       </c>
       <c r="FI7" t="n">
-        <v>-0.1234773362210725</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0</v>
+        <v>0.0868378773614245</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.08589498298165271</v>
+        <v>-0.003597478908403023</v>
       </c>
       <c r="FL7" t="n">
         <v>-0</v>
       </c>
       <c r="FM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN7" t="n">
         <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.09705020149517815</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0</v>
+        <v>-0.005241059149449562</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.007990086809609125</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0</v>
+        <v>0.03723094875847665</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.007122440376522431</v>
+        <v>-0.001880625472475258</v>
       </c>
       <c r="FU7" t="n">
         <v>-0</v>
@@ -4383,37 +4383,37 @@
         <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.005028438623525052</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>0.01112504221783289</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.1240040407928105</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.09361181504413613</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
         <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,181 +4421,181 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.1672268754992563</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4173870490813467</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03899813389998093</v>
+        <v>-0.009364916934062353</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-0.1037538337376321</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1557274531991539</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.1621356121045718</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5286145279198754</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.06949290162807562</v>
+        <v>-0.003513511902966232</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0.1678180381712661</v>
       </c>
       <c r="P8" t="n">
         <v>-0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.2581993228791243</v>
+        <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.02135519773272989</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04285750840348163</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.0228760248826365</v>
+        <v>-0.03653675314498834</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.006236065107407949</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.02520964608144192</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.03096819916375399</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.06597839459047151</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.03979741969368338</v>
+        <v>0.03549222191081662</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>-0.003988903703998697</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
         <v>-0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.123580924231673</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.01147613571919206</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.1266320041510375</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.05395806572033828</v>
+        <v>-0.02355846438024706</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>-0.04688198737750695</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR8" t="n">
         <v>-0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.02090745992540977</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>-0</v>
+        <v>0.1474648013925624</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.3170428054473257</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
         <v>-0</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.007372481614716925</v>
+        <v>-0.02987885309985442</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0</v>
+        <v>-0.102495837626316</v>
       </c>
       <c r="AZ8" t="n">
         <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0.1360991480469813</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.04355603959234695</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.09647503380612611</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.05404801851649339</v>
+        <v>-0.01128088934417675</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>-0.01779459368573299</v>
       </c>
       <c r="BI8" t="n">
         <v>-0</v>
@@ -4604,106 +4604,106 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0.01278982188516999</v>
+        <v>-0</v>
       </c>
       <c r="BL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.0621341498770692</v>
       </c>
       <c r="BN8" t="n">
-        <v>-0.1508510058858008</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
         <v>0</v>
       </c>
       <c r="BP8" t="n">
-        <v>-0.109208838699079</v>
+        <v>0.01922593914948021</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>0.02425514638463136</v>
       </c>
       <c r="BR8" t="n">
         <v>-0</v>
       </c>
       <c r="BS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.06450073585525923</v>
+        <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.07719429697720605</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.2237443038960904</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>-0.05009479065053416</v>
+        <v>-0.004334159979247251</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0</v>
+        <v>-0.03493862441281084</v>
       </c>
       <c r="CA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0.1351025944568258</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE8" t="n">
-        <v>-0</v>
+        <v>-0.04566578077951314</v>
       </c>
       <c r="CF8" t="n">
-        <v>-0.1258817985796225</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
         <v>0</v>
       </c>
       <c r="CH8" t="n">
-        <v>-0.01236908929279427</v>
+        <v>-0.006160915539447832</v>
       </c>
       <c r="CI8" t="n">
-        <v>-0</v>
+        <v>0.04172555807445631</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.05248170137221122</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.01705254750254112</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.03084600900937348</v>
+        <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.1168055692924606</v>
+        <v>0.006074231258450518</v>
       </c>
       <c r="CR8" t="n">
-        <v>0</v>
+        <v>-0.03215439113313784</v>
       </c>
       <c r="CS8" t="n">
         <v>-0</v>
@@ -4712,52 +4712,52 @@
         <v>-0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0.108351379804571</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.03580442554339727</v>
       </c>
       <c r="CX8" t="n">
-        <v>-0.1165671492733449</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.02787371485401778</v>
+        <v>-0.008846326920091289</v>
       </c>
       <c r="DA8" t="n">
-        <v>0</v>
+        <v>0.04374248514174967</v>
       </c>
       <c r="DB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
         <v>-0</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.0523940088005635</v>
+        <v>0</v>
       </c>
       <c r="DE8" t="n">
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>-0</v>
+        <v>-0.04723440316909285</v>
       </c>
       <c r="DG8" t="n">
-        <v>-0.09736582179804573</v>
+        <v>-0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.02605574510787458</v>
+        <v>0.04733929678032048</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0</v>
+        <v>0.002874834700390242</v>
       </c>
       <c r="DK8" t="n">
         <v>0</v>
@@ -4766,25 +4766,25 @@
         <v>-0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0.005046565504932318</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
         <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>-0</v>
+        <v>-0.02811082095000961</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0.01083029274689585</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.03886897508766014</v>
+        <v>0.0193049504296051</v>
       </c>
       <c r="DS8" t="n">
-        <v>0</v>
+        <v>0.006713248489600037</v>
       </c>
       <c r="DT8" t="n">
         <v>0</v>
@@ -4793,52 +4793,52 @@
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0.0891598287929162</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
         <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>0</v>
+        <v>0.02461495946005643</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.07315932201906793</v>
+        <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.01626136741311165</v>
+        <v>-0.01487447220214145</v>
       </c>
       <c r="EB8" t="n">
-        <v>-0</v>
+        <v>-0.02508276763326615</v>
       </c>
       <c r="EC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE8" t="n">
-        <v>-0.0313241933640025</v>
+        <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.03380968900669276</v>
       </c>
       <c r="EH8" t="n">
-        <v>-0.1264734567084549</v>
+        <v>-0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>-0.08879371884782022</v>
+        <v>0.006321095356972036</v>
       </c>
       <c r="EK8" t="n">
-        <v>-0</v>
+        <v>0.02091731584528292</v>
       </c>
       <c r="EL8" t="n">
         <v>-0</v>
@@ -4847,142 +4847,142 @@
         <v>-0</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.01221373611944494</v>
+        <v>0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0.01515496316239557</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.002749424388012299</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.05441483251637511</v>
+        <v>-0.01465789132401625</v>
       </c>
       <c r="ET8" t="n">
-        <v>0</v>
+        <v>0.03752582229647378</v>
       </c>
       <c r="EU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV8" t="n">
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.1345776613628888</v>
+        <v>0</v>
       </c>
       <c r="EX8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.03655258232067119</v>
       </c>
       <c r="EZ8" t="n">
-        <v>-0.1266252682793528</v>
+        <v>0</v>
       </c>
       <c r="FA8" t="n">
         <v>0</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.01337284781920151</v>
+        <v>-0.003107910883587261</v>
       </c>
       <c r="FC8" t="n">
-        <v>0</v>
+        <v>0.04623045616462187</v>
       </c>
       <c r="FD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.06008605861124305</v>
+        <v>-0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>-0.002754138407305414</v>
       </c>
       <c r="FI8" t="n">
-        <v>-0.12626675498992</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.09489422130038772</v>
+        <v>-0.02984668508877564</v>
       </c>
       <c r="FL8" t="n">
-        <v>-0</v>
+        <v>0.03070874923635799</v>
       </c>
       <c r="FM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.02909333822291506</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>-0</v>
+        <v>-0.002503515516889058</v>
       </c>
       <c r="FR8" t="n">
-        <v>-0.02521961578446059</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
         <v>0</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.01060386755826619</v>
+        <v>0.0009692457530458859</v>
       </c>
       <c r="FU8" t="n">
-        <v>-0</v>
+        <v>0.02561620727964271</v>
       </c>
       <c r="FV8" t="n">
         <v>-0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.1234558972864525</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
         <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>-0</v>
+        <v>-0.01469792746268163</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.08671371479461344</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
         <v>-0</v>
       </c>
       <c r="GC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0</v>
+        <v>-0.03675813158824143</v>
       </c>
       <c r="GE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF8" t="n">
         <v>0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.08939745761602308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4990,10 +4990,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -5044,10 +5044,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -5071,10 +5071,10 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -5098,10 +5098,10 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
@@ -5125,10 +5125,10 @@
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
         <v>0</v>
@@ -5179,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
         <v>0</v>
@@ -5206,10 +5206,10 @@
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
         <v>0</v>
@@ -5233,10 +5233,10 @@
         <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
         <v>0</v>
@@ -5260,10 +5260,10 @@
         <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
         <v>0</v>
@@ -5314,10 +5314,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -5341,10 +5341,10 @@
         <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
         <v>0</v>
@@ -5395,10 +5395,10 @@
         <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI9" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
         <v>0</v>
@@ -5449,10 +5449,10 @@
         <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA9" t="n">
         <v>0</v>
@@ -5476,10 +5476,10 @@
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ9" t="n">
         <v>0</v>
@@ -5503,10 +5503,10 @@
         <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS9" t="n">
         <v>0</v>
@@ -5556,82 +5556,82 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.4140870251896734</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1816382332730965</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.005995633623127405</v>
+        <v>-0.1819719553223891</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02135263597678141</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0</v>
+        <v>-0.3490912522651025</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.355989419828883</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2200433929371221</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0171560518090766</v>
+        <v>-0.3508948132114816</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03808485540571816</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>-0.6824205591970134</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.2997504238426291</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.0132430209771503</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.02637576244548828</v>
+        <v>0.3016994831758418</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.04013850845977179</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>-0.07871805453071325</v>
       </c>
       <c r="AA10" t="n">
         <v>-0</v>
@@ -5640,79 +5640,79 @@
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.277263828410642</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.03377753850465042</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
         <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0564600784431463</v>
+        <v>-0.1285582305635437</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.007453746154523666</v>
+        <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0</v>
+        <v>-0.256823877133243</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.1052747926201442</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.05379617643481065</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.01447280276279237</v>
+        <v>-0.01225457983934452</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.01106735614799063</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>-0.1796001090889973</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.8347455729376775</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.1117699179292041</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
         <v>-0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.03527547354446043</v>
+        <v>0.4188888631987313</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.03794099031701168</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>-0.005225754675405844</v>
       </c>
       <c r="BB10" t="n">
         <v>0</v>
@@ -5721,52 +5721,52 @@
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>-0.01236277987786707</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.05469240938602558</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.03114438797939443</v>
+        <v>-0.2221493227095833</v>
       </c>
       <c r="BH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.004700682493543005</v>
+        <v>0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0</v>
+        <v>-0.1343274306746161</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.4005807370879286</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0.0505565929011226</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0067300755875085</v>
+        <v>0.6455695079607542</v>
       </c>
       <c r="BQ10" t="n">
         <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.01181490513130906</v>
+        <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>-0</v>
+        <v>0.2605468571871966</v>
       </c>
       <c r="BT10" t="n">
         <v>-0</v>
@@ -5775,79 +5775,79 @@
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.4027506831898156</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.08456725903067812</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
         <v>-0</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.009889045458768278</v>
+        <v>0.2082612957935103</v>
       </c>
       <c r="BZ10" t="n">
         <v>0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.0388647927882045</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0</v>
+        <v>0.04801709783643932</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
         <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0</v>
+        <v>-0.1581870589945097</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0.04949118941450825</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.002430594202010133</v>
+        <v>0.02763196294649435</v>
       </c>
       <c r="CI10" t="n">
         <v>-0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0.01977709764089027</v>
+        <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0</v>
+        <v>0.1636103870407351</v>
       </c>
       <c r="CL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0</v>
+        <v>-0.3768478778391208</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.01398948550326631</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.02743020423019561</v>
+        <v>-0.4807812920364518</v>
       </c>
       <c r="CR10" t="n">
         <v>-0</v>
       </c>
       <c r="CS10" t="n">
-        <v>-0.02674109646102436</v>
+        <v>0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0</v>
+        <v>-0.1534521215108039</v>
       </c>
       <c r="CU10" t="n">
         <v>0</v>
@@ -5856,52 +5856,52 @@
         <v>-0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>-0.1252608511230929</v>
       </c>
       <c r="CX10" t="n">
-        <v>-0.04811359607758148</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.02017977995630435</v>
+        <v>0.03425326332804163</v>
       </c>
       <c r="DA10" t="n">
         <v>0</v>
       </c>
       <c r="DB10" t="n">
-        <v>-0.01662330518758304</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>-0</v>
+        <v>0.07486703056198475</v>
       </c>
       <c r="DD10" t="n">
         <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.6270653622812298</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0.0363453695212627</v>
+        <v>-0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.05303031490288927</v>
+        <v>0.1399931986169113</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>-0.0113761984130699</v>
+        <v>0</v>
       </c>
       <c r="DL10" t="n">
-        <v>0</v>
+        <v>-0.04106261950825694</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
@@ -5910,106 +5910,106 @@
         <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0</v>
+        <v>-0.1610958865037532</v>
       </c>
       <c r="DP10" t="n">
-        <v>-0.01819903247401906</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
         <v>0</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.01444563393545242</v>
+        <v>-0.0961220953795644</v>
       </c>
       <c r="DS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT10" t="n">
-        <v>-0.02435831343728781</v>
+        <v>0</v>
       </c>
       <c r="DU10" t="n">
-        <v>0</v>
+        <v>0.1232720427854635</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>0.07316721113832779</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.03012697321846449</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
         <v>-0</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.007766833038230361</v>
+        <v>-0.05557996483449301</v>
       </c>
       <c r="EB10" t="n">
         <v>-0</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.03191969454933734</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>-0</v>
+        <v>-0.1536339370952199</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
         <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>0.08115578207185493</v>
       </c>
       <c r="EH10" t="n">
-        <v>-0.08888595744707239</v>
+        <v>0</v>
       </c>
       <c r="EI10" t="n">
         <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.007353446826696754</v>
+        <v>0.06517392569115647</v>
       </c>
       <c r="EK10" t="n">
         <v>-0</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0.0208145377817519</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>0.1815468619850599</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO10" t="n">
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0.05501183340937445</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.01656663509472125</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.04404836366307744</v>
+        <v>0.1125568309675179</v>
       </c>
       <c r="ET10" t="n">
         <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.008228121841453181</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>0</v>
+        <v>0.01309333194210422</v>
       </c>
       <c r="EW10" t="n">
         <v>-0</v>
@@ -6018,91 +6018,91 @@
         <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.1109524871834533</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0.04766119554532174</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.004682997121820559</v>
+        <v>0.04377370597562613</v>
       </c>
       <c r="FC10" t="n">
         <v>-0</v>
       </c>
       <c r="FD10" t="n">
-        <v>-0.01180136349307575</v>
+        <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0</v>
+        <v>0.150456350033064</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>-0.05787094940502054</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0.01789127577836563</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
         <v>0</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.005844594090438089</v>
+        <v>-0.1079717948810323</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.009459395740258513</v>
+        <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0</v>
+        <v>-0.1020069453364108</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-0</v>
+        <v>0.0198619356171281</v>
       </c>
       <c r="FR10" t="n">
-        <v>-0.005808780909451204</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
         <v>-0</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.005834246838879312</v>
+        <v>0.04373087886308043</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.007352736084208026</v>
+        <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>-0.1717979940822003</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.3103215357345082</v>
       </c>
       <c r="GA10" t="n">
-        <v>-0.0036680494191921</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
         <v>-0</v>
@@ -6114,36 +6114,36 @@
         <v>0</v>
       </c>
       <c r="GE10" t="n">
-        <v>-0.002837459805560831</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>0</v>
+        <v>-0.3110226453760752</v>
       </c>
       <c r="GG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>-0.2368517741760804</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2865994225319816</v>
+        <v>0.4282401006139772</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3659878513363373</v>
+        <v>-0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04948870609856672</v>
+        <v>-0.1573692507205403</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -6152,73 +6152,73 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-0.174760971132089</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.2668022303561237</v>
+        <v>0.3774262678156114</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4223206015729142</v>
+        <v>-0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.09063287059463514</v>
+        <v>-0.3689118832412238</v>
       </c>
       <c r="O11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.0198286142443377</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.1705111609553791</v>
+        <v>0.2974699869538441</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1238590550515331</v>
+        <v>-0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.0513239526251482</v>
+        <v>0.2045045208196993</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0</v>
+        <v>0.04029494930087998</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.117818163667417</v>
+        <v>0.1747387454736785</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.1123723510335413</v>
+        <v>-0</v>
       </c>
       <c r="AE11" t="n">
         <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.03891343032179286</v>
+        <v>-0.06874581500373328</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -6227,25 +6227,25 @@
         <v>-0</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
         <v>-0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>-0.09689097591192863</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.1206467091435757</v>
+        <v>0.1952485393767772</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.08255298207809456</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.01451123898529928</v>
+        <v>0.03204929432310592</v>
       </c>
       <c r="AP11" t="n">
         <v>0</v>
@@ -6254,52 +6254,52 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>0.19625669046297</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.2242014538735554</v>
+        <v>0.5714201424047074</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.0968725093690324</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
         <v>-0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.1525292439135322</v>
+        <v>0.3243467649744163</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>-0.1358599968127568</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.1051326218705032</v>
+        <v>-0.04735088819037612</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.1221825984951344</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.1266170710226256</v>
+        <v>-0.2823883685094337</v>
       </c>
       <c r="BH11" t="n">
         <v>0</v>
@@ -6314,46 +6314,46 @@
         <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0</v>
+        <v>-0.08196304950153938</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.02190064899847766</v>
+        <v>0.07509965987434392</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0.1435563583751455</v>
+        <v>-0</v>
       </c>
       <c r="BO11" t="n">
         <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>-0.1080213818766822</v>
+        <v>0.2918258830562541</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR11" t="n">
         <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>0.106860543647104</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.1389433346306038</v>
+        <v>0.3525163971840918</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.1983289161113969</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.04437943332821693</v>
+        <v>0.08165572047983688</v>
       </c>
       <c r="BZ11" t="n">
         <v>0</v>
@@ -6368,46 +6368,46 @@
         <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>-0</v>
+        <v>0.03912409604200023</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.07909030081468035</v>
+        <v>-0.1044872426587082</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0.06833065659929387</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>-0.006735365727415297</v>
+        <v>-0.01364911348721125</v>
       </c>
       <c r="CI11" t="n">
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL11" t="n">
         <v>-0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>-0.264636593056403</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.02157661666903648</v>
+        <v>-0.1110022112502398</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.07864668875248894</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
         <v>-0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.1696314467139187</v>
+        <v>-0.2842175674428912</v>
       </c>
       <c r="CR11" t="n">
         <v>-0</v>
@@ -6422,25 +6422,25 @@
         <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>0</v>
+        <v>0.01873097448300696</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.06484220594515792</v>
+        <v>-0.1179411800838</v>
       </c>
       <c r="CX11" t="n">
-        <v>-0.08117169639136534</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.01563271683784622</v>
+        <v>0.006335041887522175</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
         <v>-0</v>
@@ -6449,19 +6449,19 @@
         <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>-0</v>
+        <v>0.2480050885538153</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.1773244179262372</v>
+        <v>-0.398951217553391</v>
       </c>
       <c r="DG11" t="n">
-        <v>-0.0003718083621269251</v>
+        <v>0</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.0229853362795507</v>
+        <v>0.06623550118849042</v>
       </c>
       <c r="DJ11" t="n">
         <v>0</v>
@@ -6470,28 +6470,28 @@
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN11" t="n">
-        <v>-0</v>
+        <v>-0.1325273493652447</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.05546899568766548</v>
+        <v>-0.1692864223476128</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.06050668160145403</v>
+        <v>-0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.003967296867371946</v>
+        <v>-0.05275197622694023</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT11" t="n">
         <v>0</v>
@@ -6503,19 +6503,19 @@
         <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0</v>
+        <v>-0.04332125458465274</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.0574743259243964</v>
+        <v>0.1323553265061046</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.07138631941892373</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
         <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.01552362922549898</v>
+        <v>-0.1039013379236078</v>
       </c>
       <c r="EB11" t="n">
         <v>0</v>
@@ -6524,52 +6524,52 @@
         <v>0</v>
       </c>
       <c r="ED11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE11" t="n">
         <v>-0</v>
       </c>
       <c r="EF11" t="n">
-        <v>-0</v>
+        <v>-0.05903344221007327</v>
       </c>
       <c r="EG11" t="n">
-        <v>-0.03830323870728593</v>
+        <v>0.1580531756825727</v>
       </c>
       <c r="EH11" t="n">
-        <v>-0.07454585859132455</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
         <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.07159747159968299</v>
+        <v>0.004426425765733766</v>
       </c>
       <c r="EK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
         <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
-        <v>0</v>
+        <v>-0.03224915333081991</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.1292248759890282</v>
+        <v>-0.09697559498066002</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0.06205901986070644</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.1089303585226291</v>
+        <v>-0.02938001701136138</v>
       </c>
       <c r="ET11" t="n">
         <v>-0</v>
@@ -6578,55 +6578,55 @@
         <v>-0</v>
       </c>
       <c r="EV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0</v>
+        <v>0.03723101467982912</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.04756417648104082</v>
+        <v>-0.1101899691962202</v>
       </c>
       <c r="EZ11" t="n">
-        <v>-0.08574736593147361</v>
+        <v>-0</v>
       </c>
       <c r="FA11" t="n">
         <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.009764674632446041</v>
+        <v>-0.05234479266363937</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
-        <v>0</v>
+        <v>0.1604652513162104</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.07431244180831309</v>
+        <v>-0.05408729984846706</v>
       </c>
       <c r="FI11" t="n">
-        <v>-0.1230020992372894</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
         <v>0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.03142095881015473</v>
+        <v>-0.08636732447195747</v>
       </c>
       <c r="FL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM11" t="n">
         <v>0</v>
@@ -6638,19 +6638,19 @@
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>0</v>
+        <v>-0.009796257125295462</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.1091853477673227</v>
+        <v>-0.02981959444214748</v>
       </c>
       <c r="FR11" t="n">
-        <v>-0.006701784621992187</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.008736219429896226</v>
+        <v>0.01399334328176596</v>
       </c>
       <c r="FU11" t="n">
         <v>0</v>
@@ -6665,19 +6665,19 @@
         <v>-0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0</v>
+        <v>-0.06397056932381519</v>
       </c>
       <c r="FZ11" t="n">
-        <v>-0.0005513907781145716</v>
+        <v>-0.154638663704746</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.1276308922859882</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD11" t="n">
         <v>-0</v>
@@ -6689,60 +6689,60 @@
         <v>-0</v>
       </c>
       <c r="GG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.5319002917270482</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2123586993072917</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1511450896196902</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.004603929319294132</v>
+        <v>-0.2661096760720325</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0.2754485098676538</v>
       </c>
       <c r="H12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>0.3914847244747058</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2306508025374347</v>
+        <v>-0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1065690258154713</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.104787234121306</v>
+        <v>-0.2865320058554609</v>
       </c>
       <c r="O12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0.2411154436742089</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -6751,133 +6751,133 @@
         <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.2001135802293743</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04401271448100657</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.08675700106178637</v>
+        <v>-0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1036051844749884</v>
+        <v>0.2163492355642851</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0</v>
+        <v>-0.03278122765144969</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB12" t="n">
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.2336979224752768</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.001381867242832076</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.06831838097406084</v>
+        <v>-0</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.02378326524698716</v>
+        <v>0.05971446741888643</v>
       </c>
       <c r="AG12" t="n">
         <v>-0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>-0.02885837113151845</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
         <v>-0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>0.07116912773160655</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.0604697520972721</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>-0.01076029552788823</v>
+        <v>-0</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.03702936166563169</v>
+        <v>0.002361533144790778</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0</v>
+        <v>-0.07685322296462661</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.6047274890572939</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.1408933270836194</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0.01566563636847337</v>
+        <v>-0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.1262877723020522</v>
+        <v>-0.0115537155990397</v>
       </c>
       <c r="AY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>-0.1791874886932588</v>
       </c>
       <c r="BA12" t="n">
         <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC12" t="n">
         <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0</v>
+        <v>0.1034041116129616</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.06565690397624194</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0.08691633974652758</v>
+        <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.06780160572622947</v>
+        <v>-0.1038779505801347</v>
       </c>
       <c r="BH12" t="n">
         <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>-0.1130061446088581</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
@@ -6886,238 +6886,238 @@
         <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.0989788042203491</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0.09043812454915907</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>-0.068675963993041</v>
+        <v>-0</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.0947907991383518</v>
+        <v>0.2144506903881195</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR12" t="n">
-        <v>-0</v>
+        <v>0.01320690767790568</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
         <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.2568923576534772</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.06645787749410981</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>-0.02116021864213451</v>
+        <v>-0</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.001746106168508328</v>
+        <v>-0.01101386406577786</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
-        <v>0</v>
+        <v>-0.07900306065349984</v>
       </c>
       <c r="CB12" t="n">
         <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.1492530107271576</v>
       </c>
       <c r="CF12" t="n">
-        <v>-0.04393822468316873</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.04121087454423392</v>
+        <v>-0</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.03029132088620317</v>
+        <v>0.0561261269205712</v>
       </c>
       <c r="CI12" t="n">
         <v>-0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>-0</v>
+        <v>0.07014439578496735</v>
       </c>
       <c r="CK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL12" t="n">
         <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>-0.2226758527595059</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.01823149332169608</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.0120297113423457</v>
+        <v>0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.01123605184323445</v>
+        <v>-0.1742500616519252</v>
       </c>
       <c r="CR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>-0</v>
+        <v>-0.002958869899430355</v>
       </c>
       <c r="CT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.1174994978917539</v>
       </c>
       <c r="CX12" t="n">
-        <v>-0.04175150400187463</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.0355915355944729</v>
+        <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.01403307218395507</v>
+        <v>0.04738991420473637</v>
       </c>
       <c r="DA12" t="n">
         <v>0</v>
       </c>
       <c r="DB12" t="n">
-        <v>0</v>
+        <v>0.05932863350967378</v>
       </c>
       <c r="DC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
         <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>-0</v>
+        <v>-0.3632276956030513</v>
       </c>
       <c r="DG12" t="n">
-        <v>-0.02741190300109587</v>
+        <v>-0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.04074448252029171</v>
+        <v>-0</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.1039891202827556</v>
+        <v>0.05058938401573208</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK12" t="n">
-        <v>-0</v>
+        <v>-0.09472961123975748</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO12" t="n">
-        <v>-0</v>
+        <v>-0.08283639822856918</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.05908762377955011</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>-0.01707555260708785</v>
+        <v>-0</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.1066836484158015</v>
+        <v>0.03548680634423883</v>
       </c>
       <c r="DS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT12" t="n">
-        <v>-0</v>
+        <v>-0.02693962062150807</v>
       </c>
       <c r="DU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV12" t="n">
         <v>-0</v>
       </c>
       <c r="DW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.147683079975484</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.08759394141318932</v>
+        <v>-0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.04791980460434387</v>
+        <v>-0</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.01608533779872869</v>
+        <v>-0.07727394207194675</v>
       </c>
       <c r="EB12" t="n">
         <v>0</v>
       </c>
       <c r="EC12" t="n">
-        <v>0</v>
+        <v>0.003573631958904973</v>
       </c>
       <c r="ED12" t="n">
         <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.0393977209996528</v>
       </c>
       <c r="EH12" t="n">
-        <v>-0.04679865843929924</v>
+        <v>0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.08101041271350365</v>
+        <v>-0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.07563551866426438</v>
+        <v>0.08787749250488164</v>
       </c>
       <c r="EK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL12" t="n">
-        <v>-0</v>
+        <v>0.08425858481205242</v>
       </c>
       <c r="EM12" t="n">
         <v>-0</v>
@@ -7126,55 +7126,55 @@
         <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.04861989198257095</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0.00850175796018037</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.0257640970072173</v>
+        <v>-0</v>
       </c>
       <c r="ES12" t="n">
-        <v>-0.01839083256384052</v>
+        <v>0.04855422744376831</v>
       </c>
       <c r="ET12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>0.01603423170886747</v>
       </c>
       <c r="EV12" t="n">
         <v>-0</v>
       </c>
       <c r="EW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.1286370965407103</v>
       </c>
       <c r="EZ12" t="n">
-        <v>-0.03739944910839405</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.03675938922671986</v>
+        <v>-0</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.02498533063624792</v>
+        <v>0.04754719662577281</v>
       </c>
       <c r="FC12" t="n">
         <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0</v>
+        <v>0.05890110439714463</v>
       </c>
       <c r="FE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF12" t="n">
         <v>-0</v>
@@ -7183,25 +7183,25 @@
         <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>-0.0421094352705843</v>
       </c>
       <c r="FI12" t="n">
-        <v>-0.02923768639867903</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.007904744471347052</v>
+        <v>0</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.003240844725173411</v>
+        <v>-0.113959104034843</v>
       </c>
       <c r="FL12" t="n">
         <v>-0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0.06419630585364511</v>
       </c>
       <c r="FN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
         <v>-0</v>
@@ -7210,52 +7210,52 @@
         <v>-0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.01024425265711541</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.007088141057038258</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0.03342562256836432</v>
+        <v>-0</v>
       </c>
       <c r="FT12" t="n">
-        <v>-0.001544538582471452</v>
+        <v>0.01131290628212045</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV12" t="n">
-        <v>-0</v>
+        <v>0.05368233383618497</v>
       </c>
       <c r="FW12" t="n">
         <v>0</v>
       </c>
       <c r="FX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0</v>
+        <v>-0.1114233156106896</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.02247714948168539</v>
+        <v>0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.02408334878085926</v>
+        <v>-0</v>
       </c>
       <c r="GC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD12" t="n">
         <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>0</v>
+        <v>-0.00698406245480016</v>
       </c>
       <c r="GF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG12" t="n">
         <v>0</v>
@@ -7263,100 +7263,100 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.7675229500376433</v>
       </c>
       <c r="C13" t="n">
-        <v>0.286921039009837</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.006067584301694962</v>
+        <v>-0.2393504694053548</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.146593471719729</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-0.4232904237368065</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.5502701248450331</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2820200486092062</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02620325974099485</v>
+        <v>-0.3122885906228083</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.1610316287393871</v>
+        <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-0.431468246609088</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.270059812103028</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.006758191740415304</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.0322868478936614</v>
+        <v>0.04510855597724524</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.06700499732695675</v>
+        <v>-0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>-0.08745374345584193</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.3183565104320905</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.003455140361565118</v>
+        <v>-0</v>
       </c>
       <c r="AE13" t="n">
         <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.02742233398412699</v>
+        <v>-0.0581203195657155</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -7365,25 +7365,25 @@
         <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.01286162432622585</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0</v>
+        <v>0.008073733655733783</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0</v>
+        <v>0.1492042834533128</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.06317084007198283</v>
+        <v>-0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.07639344911303673</v>
+        <v>-0.01175105596037616</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
@@ -7392,25 +7392,25 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-0.02149633510860711</v>
+        <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0</v>
+        <v>-0.03137396414934696</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0</v>
+        <v>0.7848121894060394</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.1481229563951737</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
         <v>-0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.03429685082953595</v>
+        <v>0.1140060567599054</v>
       </c>
       <c r="AY13" t="n">
         <v>0</v>
@@ -7419,25 +7419,25 @@
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>-0.1409465057118477</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>-0.2494948482116723</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.0811016873824433</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.07059936626675051</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
         <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.06040986258740483</v>
+        <v>-0.2184532147657136</v>
       </c>
       <c r="BH13" t="n">
         <v>0</v>
@@ -7446,388 +7446,388 @@
         <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0.05812629193862125</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0</v>
+        <v>-0.1767811405067999</v>
       </c>
       <c r="BL13" t="n">
         <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.0546120120886987</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0.0606384607093679</v>
+        <v>-0</v>
       </c>
       <c r="BO13" t="n">
         <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.0567671597467759</v>
+        <v>0.3381071370694067</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.07250188185179675</v>
+        <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0</v>
+        <v>0.006649564079545768</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>0.4648441843800752</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.0999881603454242</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.0004692355691835448</v>
+        <v>0.06069589861683189</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0.06577832512896373</v>
+        <v>-0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0</v>
+        <v>-0.1014008557503341</v>
       </c>
       <c r="CD13" t="n">
         <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>-0</v>
+        <v>-0.189542135070138</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0.071820013469601</v>
+        <v>-0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.0007099112678263436</v>
+        <v>0.02451081645098459</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.03260077911277827</v>
+        <v>-0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0</v>
+        <v>0.1482036050265327</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0</v>
+        <v>-0.2260435167011973</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0400023276181968</v>
+        <v>0</v>
       </c>
       <c r="CP13" t="n">
         <v>-0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.09230563073476616</v>
+        <v>-0.2245544265899017</v>
       </c>
       <c r="CR13" t="n">
         <v>0</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.06171902615658395</v>
+        <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0</v>
+        <v>0.05786722142276653</v>
       </c>
       <c r="CV13" t="n">
         <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0</v>
+        <v>-0.1613641109128821</v>
       </c>
       <c r="CX13" t="n">
-        <v>-0.06807041658803779</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.02996597269350194</v>
+        <v>0.03500069348632016</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.02658150670737825</v>
+        <v>-0</v>
       </c>
       <c r="DD13" t="n">
-        <v>0</v>
+        <v>0.1075833058884473</v>
       </c>
       <c r="DE13" t="n">
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.450607184291181</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0.03525604759667339</v>
+        <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.0333644794536504</v>
+        <v>0.1084714720882998</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.04200823226135782</v>
+        <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>0</v>
+        <v>0.01832638307279654</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0.08361745939022677</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0.01443613433039715</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
         <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.01649992191386447</v>
+        <v>-0.0003985997279781389</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT13" t="n">
         <v>0</v>
       </c>
       <c r="DU13" t="n">
-        <v>-0.01579193627328859</v>
+        <v>0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0</v>
+        <v>-0.03801975161875711</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0</v>
+        <v>0.1713429556039515</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.02804042230385969</v>
+        <v>-0</v>
       </c>
       <c r="DZ13" t="n">
         <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0009457740406118695</v>
+        <v>-0.06260383389727746</v>
       </c>
       <c r="EB13" t="n">
         <v>-0</v>
       </c>
       <c r="EC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.0554887527466443</v>
+        <v>-0</v>
       </c>
       <c r="EE13" t="n">
-        <v>-0</v>
+        <v>-0.002041737485253598</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.01183480307789825</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0.06898939444093176</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.04110658000274327</v>
+        <v>0.05333373573440357</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.05013498116382011</v>
+        <v>0</v>
       </c>
       <c r="EN13" t="n">
-        <v>0</v>
+        <v>0.2080372336071113</v>
       </c>
       <c r="EO13" t="n">
         <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>-0</v>
+        <v>-0.1257137851085801</v>
       </c>
       <c r="EQ13" t="n">
-        <v>-0.005506512124842172</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.04095751110669389</v>
+        <v>-0.006573926987699884</v>
       </c>
       <c r="ET13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU13" t="n">
         <v>0</v>
       </c>
       <c r="EV13" t="n">
-        <v>-0.01184488779467217</v>
+        <v>-0</v>
       </c>
       <c r="EW13" t="n">
-        <v>-0</v>
+        <v>0.01889365856432744</v>
       </c>
       <c r="EX13" t="n">
         <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.1900229989856457</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0.07188222226799518</v>
+        <v>-0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.01399680277614966</v>
+        <v>0.01417379748764352</v>
       </c>
       <c r="FC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.03951905001947938</v>
+        <v>-0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0</v>
+        <v>0.09924223091910823</v>
       </c>
       <c r="FG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0</v>
+        <v>-0.09264559624657331</v>
       </c>
       <c r="FI13" t="n">
-        <v>-0.06478254595519981</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
         <v>0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.01599185356455153</v>
+        <v>-0.06220429217900583</v>
       </c>
       <c r="FL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.006078885409899439</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>-0.1378059685564795</v>
       </c>
       <c r="FP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>-0</v>
+        <v>-0.01578362117967838</v>
       </c>
       <c r="FR13" t="n">
-        <v>-0.01198944536515025</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
         <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.0006189743834806815</v>
+        <v>0.006221354128122514</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0.007027095693954215</v>
+        <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>0.03474151670704284</v>
       </c>
       <c r="FY13" t="n">
         <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>-0</v>
+        <v>-0.2112114121332656</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.01741219395929439</v>
+        <v>0</v>
       </c>
       <c r="GB13" t="n">
         <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE13" t="n">
         <v>-0</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.02822751664715593</v>
+        <v>0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0</v>
+        <v>-0.03826524230169872</v>
       </c>
     </row>
     <row r="14">
@@ -7835,10 +7835,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -7862,10 +7862,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -7889,10 +7889,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -7916,10 +7916,10 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -7943,10 +7943,10 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
         <v>0</v>
@@ -7997,10 +7997,10 @@
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
         <v>0</v>
@@ -8024,10 +8024,10 @@
         <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
         <v>0</v>
@@ -8051,10 +8051,10 @@
         <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG14" t="n">
         <v>0</v>
@@ -8105,10 +8105,10 @@
         <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP14" t="n">
         <v>0</v>
@@ -8159,10 +8159,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -8186,10 +8186,10 @@
         <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
         <v>0</v>
@@ -8240,10 +8240,10 @@
         <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI14" t="n">
         <v>0</v>
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA14" t="n">
         <v>0</v>
@@ -8321,10 +8321,10 @@
         <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ14" t="n">
         <v>0</v>
@@ -8348,10 +8348,10 @@
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS14" t="n">
         <v>0</v>
@@ -8404,46 +8404,46 @@
         <v>-0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.2423175276693852</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1891285277366232</v>
+        <v>-0.07052425005005317</v>
       </c>
       <c r="D15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03001034295372771</v>
+        <v>-0.09114837792202443</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01481149823367497</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.1936105335099626</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1926116080135323</v>
+        <v>-0.04596381085413895</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02124999810247542</v>
+        <v>-0.1333756895739681</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.05022462128128272</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>-0</v>
@@ -8458,25 +8458,25 @@
         <v>-0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.06176957451717052</v>
       </c>
       <c r="U15" t="n">
-        <v>0.002134116504219942</v>
+        <v>0.002036085664480468</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.07609615506756895</v>
+        <v>0.01110247495286459</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.04947932845504566</v>
+        <v>-0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>-0</v>
@@ -8485,22 +8485,22 @@
         <v>-0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.07904564193266715</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.006874259072093585</v>
+        <v>0.007084872520625183</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.124322668988369</v>
+        <v>0.02317513223021877</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.04749381245822314</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI15" t="n">
         <v>-0</v>
@@ -8512,46 +8512,46 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0</v>
+        <v>0.06793144158849806</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.0658695370864131</v>
+        <v>-0.003787130187296552</v>
       </c>
       <c r="AN15" t="n">
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.03199554063141712</v>
+        <v>-0.01669958603091842</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0.002733716198109399</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS15" t="n">
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.1954572017155776</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.0947831531173888</v>
+        <v>-0.0455409207563201</v>
       </c>
       <c r="AW15" t="n">
         <v>-0</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.04356506904235483</v>
+        <v>-0.02117715627409004</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.003883665193514867</v>
+        <v>0</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
@@ -8560,31 +8560,31 @@
         <v>0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC15" t="n">
         <v>-0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>0.05018916842587316</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.0302031830052592</v>
+        <v>-0.0331346605761492</v>
       </c>
       <c r="BF15" t="n">
         <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.04872016112156658</v>
+        <v>-0.09365940520716383</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0.00929976881533252</v>
+        <v>0</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK15" t="n">
         <v>0</v>
@@ -8593,76 +8593,76 @@
         <v>-0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>0.03480585396374154</v>
       </c>
       <c r="BN15" t="n">
-        <v>-0.03212639672768262</v>
+        <v>-0.02038261114742641</v>
       </c>
       <c r="BO15" t="n">
         <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>-0.06019412897268305</v>
+        <v>0.03620651822235817</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0.01298473047183699</v>
+        <v>-0</v>
       </c>
       <c r="BR15" t="n">
         <v>-0</v>
       </c>
       <c r="BS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>0.110107887266753</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.06588107922734414</v>
+        <v>-0.05205167447252523</v>
       </c>
       <c r="BX15" t="n">
         <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>-0.03425590907651006</v>
+        <v>0.007350922972350669</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-0.04613454827169338</v>
+        <v>-0</v>
       </c>
       <c r="CA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD15" t="n">
         <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>-0</v>
+        <v>-0.04670862580849976</v>
       </c>
       <c r="CF15" t="n">
-        <v>-0.04131860130471983</v>
+        <v>0.005407675475689114</v>
       </c>
       <c r="CG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH15" t="n">
-        <v>-0.01658477925631057</v>
+        <v>0.01912298140153196</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.006955742063375416</v>
+        <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK15" t="n">
         <v>0</v>
@@ -8671,22 +8671,22 @@
         <v>-0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>-0</v>
+        <v>-0.02465172274197945</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.04819315359250512</v>
+        <v>-0.0139938825383469</v>
       </c>
       <c r="CP15" t="n">
         <v>-0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.09778200766806901</v>
+        <v>0.01746131664655941</v>
       </c>
       <c r="CR15" t="n">
-        <v>-0.00610818306217259</v>
+        <v>0</v>
       </c>
       <c r="CS15" t="n">
         <v>-0</v>
@@ -8695,109 +8695,109 @@
         <v>-0</v>
       </c>
       <c r="CU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
         <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>0</v>
+        <v>-0.03434450806259039</v>
       </c>
       <c r="CX15" t="n">
-        <v>-0.03806594566426126</v>
+        <v>-0.001680062560800156</v>
       </c>
       <c r="CY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.001875915462326586</v>
+        <v>0.009208919355260383</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.0110185289591743</v>
+        <v>0</v>
       </c>
       <c r="DB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE15" t="n">
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>-0</v>
+        <v>-0.0404637587788606</v>
       </c>
       <c r="DG15" t="n">
-        <v>-0.04050831411507766</v>
+        <v>0.01276274861884548</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
       </c>
       <c r="DI15" t="n">
-        <v>-0.04844817591172913</v>
+        <v>-0.01243582658283967</v>
       </c>
       <c r="DJ15" t="n">
-        <v>-0.0891790053370491</v>
+        <v>-0</v>
       </c>
       <c r="DK15" t="n">
         <v>0</v>
       </c>
       <c r="DL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO15" t="n">
-        <v>-0</v>
+        <v>-0.02300074156306127</v>
       </c>
       <c r="DP15" t="n">
-        <v>-0.01817185089664941</v>
+        <v>0.006951652254949176</v>
       </c>
       <c r="DQ15" t="n">
         <v>-0</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.03860584168764122</v>
+        <v>0.008683192370150262</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0.007867980043960087</v>
+        <v>-0</v>
       </c>
       <c r="DT15" t="n">
         <v>0</v>
       </c>
       <c r="DU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>0.01587226096435545</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.02242545528672585</v>
+        <v>-0.01455002698464741</v>
       </c>
       <c r="DZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.03465518412644036</v>
+        <v>-0.007720299928725771</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.007555979662408452</v>
+        <v>0</v>
       </c>
       <c r="EC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED15" t="n">
         <v>-0</v>
@@ -8806,49 +8806,49 @@
         <v>-0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0.01234302050060933</v>
       </c>
       <c r="EH15" t="n">
-        <v>-0.03814352761286718</v>
+        <v>-0.002703665588768782</v>
       </c>
       <c r="EI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>-0.03344656403492449</v>
+        <v>0.04063398539425512</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.02337317466527372</v>
+        <v>0</v>
       </c>
       <c r="EL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM15" t="n">
         <v>0</v>
       </c>
       <c r="EN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0.01309390247951039</v>
       </c>
       <c r="EQ15" t="n">
-        <v>-0.001329860501275696</v>
+        <v>-0.03756222455788923</v>
       </c>
       <c r="ER15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.02657071217280954</v>
+        <v>0.03310334595544871</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.06942845252927493</v>
+        <v>-0</v>
       </c>
       <c r="EU15" t="n">
         <v>-0</v>
@@ -8857,28 +8857,28 @@
         <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX15" t="n">
         <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0.04156851571289946</v>
       </c>
       <c r="EZ15" t="n">
-        <v>-0.04354480186506085</v>
+        <v>0.00195878923855244</v>
       </c>
       <c r="FA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0.007397103789656694</v>
+        <v>0.02009801110362146</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.00213679615759885</v>
+        <v>-0</v>
       </c>
       <c r="FD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE15" t="n">
         <v>0</v>
@@ -8887,22 +8887,22 @@
         <v>-0</v>
       </c>
       <c r="FG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH15" t="n">
-        <v>-0</v>
+        <v>-0.03754034272753051</v>
       </c>
       <c r="FI15" t="n">
-        <v>-0.03658684529290983</v>
+        <v>-0.0235482357775186</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.02147849629282473</v>
+        <v>-0.05436451404540103</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.03622738578255445</v>
+        <v>-0</v>
       </c>
       <c r="FM15" t="n">
         <v>0</v>
@@ -8914,49 +8914,49 @@
         <v>0</v>
       </c>
       <c r="FP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>-0</v>
+        <v>-0.0001028972701101179</v>
       </c>
       <c r="FR15" t="n">
-        <v>-0.0004043817144190705</v>
+        <v>0.01271973181703341</v>
       </c>
       <c r="FS15" t="n">
         <v>-0</v>
       </c>
       <c r="FT15" t="n">
-        <v>-0.0027996793629571</v>
+        <v>-0.004702515901304995</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.008265279725929974</v>
+        <v>-0</v>
       </c>
       <c r="FV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY15" t="n">
         <v>-0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0</v>
+        <v>0.00474094176887455</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.01326024273566981</v>
+        <v>0.01259264197697419</v>
       </c>
       <c r="GB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC15" t="n">
         <v>-0</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.01065371761204207</v>
+        <v>-0</v>
       </c>
       <c r="GE15" t="n">
         <v>-0</v>
@@ -8970,100 +8970,100 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>-0</v>
+        <v>0.298089489318609</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1785155692468257</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01631295845000398</v>
+        <v>-0.1354294650751428</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.09238524372154835</v>
+        <v>-0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-0.04364549437033808</v>
       </c>
       <c r="J16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.1889463385098223</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1668731436334653</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.03139187224430927</v>
+        <v>-0.1825061156211827</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.103218866800791</v>
+        <v>-0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-0.0541964413404111</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.06376410082296115</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.01915043907890262</v>
+        <v>-0</v>
       </c>
       <c r="V16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.03969314674312471</v>
+        <v>0.02380581734686323</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.03564663177683244</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0</v>
+        <v>-0.00893621028586509</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>0.1265645593624711</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.005256494514749506</v>
+        <v>-0</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.04597834455616534</v>
+        <v>-0.02701925482204472</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
@@ -9072,25 +9072,25 @@
         <v>-0</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.02022629022151781</v>
+        <v>-0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0</v>
+        <v>0.01474618082267755</v>
       </c>
       <c r="AK16" t="n">
         <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0</v>
+        <v>0.07125792223437141</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.03408447196698514</v>
+        <v>-0</v>
       </c>
       <c r="AN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.06978555119368002</v>
+        <v>-0.01616913186719522</v>
       </c>
       <c r="AP16" t="n">
         <v>0</v>
@@ -9099,25 +9099,25 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>-0.01030033815836035</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>-0</v>
+        <v>-0.0278797167483417</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU16" t="n">
-        <v>-0</v>
+        <v>0.292261113554585</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.08177197893409634</v>
+        <v>-0</v>
       </c>
       <c r="AW16" t="n">
         <v>-0</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.02665797196534899</v>
+        <v>0.01760242349176605</v>
       </c>
       <c r="AY16" t="n">
         <v>0</v>
@@ -9126,25 +9126,25 @@
         <v>0</v>
       </c>
       <c r="BA16" t="n">
-        <v>-0.1248733704009669</v>
+        <v>-0</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>0.0265865964931553</v>
       </c>
       <c r="BC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>0.0241170015159488</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.05368132516855666</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
         <v>0</v>
       </c>
       <c r="BG16" t="n">
-        <v>-0.03278816502724477</v>
+        <v>-0.1587315168108064</v>
       </c>
       <c r="BH16" t="n">
         <v>0</v>
@@ -9153,322 +9153,322 @@
         <v>-0</v>
       </c>
       <c r="BJ16" t="n">
-        <v>-0.02458725269929539</v>
+        <v>-0</v>
       </c>
       <c r="BK16" t="n">
-        <v>-0</v>
+        <v>-0.0356574522810949</v>
       </c>
       <c r="BL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>0.04317003238564474</v>
       </c>
       <c r="BN16" t="n">
-        <v>-0.02230157887563973</v>
+        <v>-0</v>
       </c>
       <c r="BO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP16" t="n">
-        <v>-0.02100337820405254</v>
+        <v>0.0782655408176785</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR16" t="n">
         <v>-0</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.06204463267593305</v>
+        <v>-0</v>
       </c>
       <c r="BT16" t="n">
-        <v>-0</v>
+        <v>-8.077218504408724e-05</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>0.1714467691970225</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.05513058960174784</v>
+        <v>0</v>
       </c>
       <c r="BX16" t="n">
         <v>-0</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.002203432656817063</v>
+        <v>0.009404745073706493</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA16" t="n">
         <v>0</v>
       </c>
       <c r="CB16" t="n">
-        <v>-0.02893321231408704</v>
+        <v>0</v>
       </c>
       <c r="CC16" t="n">
-        <v>0</v>
+        <v>0.01602079042524744</v>
       </c>
       <c r="CD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE16" t="n">
-        <v>-0</v>
+        <v>-0.05253181223019728</v>
       </c>
       <c r="CF16" t="n">
-        <v>-0.03705045505268346</v>
+        <v>-0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH16" t="n">
-        <v>-0.004794432091793031</v>
+        <v>0.01489686064762871</v>
       </c>
       <c r="CI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.02793736812353168</v>
+        <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>-0</v>
+        <v>0.0146183041565796</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>-0</v>
+        <v>-0.05806465670580274</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.0204216662169455</v>
+        <v>-0</v>
       </c>
       <c r="CP16" t="n">
         <v>-0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.05077089455231475</v>
+        <v>-0.02076693377692065</v>
       </c>
       <c r="CR16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.02685671979368466</v>
+        <v>-0</v>
       </c>
       <c r="CU16" t="n">
-        <v>0</v>
+        <v>-0.02846159305678699</v>
       </c>
       <c r="CV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW16" t="n">
-        <v>0</v>
+        <v>-0.03788718687649849</v>
       </c>
       <c r="CX16" t="n">
-        <v>-0.03499443225501066</v>
+        <v>0</v>
       </c>
       <c r="CY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.01005791591145793</v>
+        <v>0.005566995344276616</v>
       </c>
       <c r="DA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.01929380136591264</v>
+        <v>-0</v>
       </c>
       <c r="DD16" t="n">
-        <v>0</v>
+        <v>0.02213407542598488</v>
       </c>
       <c r="DE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF16" t="n">
-        <v>0</v>
+        <v>-0.04733185053257771</v>
       </c>
       <c r="DG16" t="n">
-        <v>-0.01124193977139453</v>
+        <v>-0</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI16" t="n">
-        <v>-0.04354767740576194</v>
+        <v>0.06293929450548898</v>
       </c>
       <c r="DJ16" t="n">
         <v>0</v>
       </c>
       <c r="DK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL16" t="n">
-        <v>0.003082866842434093</v>
+        <v>0</v>
       </c>
       <c r="DM16" t="n">
-        <v>0</v>
+        <v>-0.02513463921775738</v>
       </c>
       <c r="DN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO16" t="n">
-        <v>-0</v>
+        <v>0.005048494911745488</v>
       </c>
       <c r="DP16" t="n">
-        <v>-0.01270232571591006</v>
+        <v>-0</v>
       </c>
       <c r="DQ16" t="n">
         <v>-0</v>
       </c>
       <c r="DR16" t="n">
-        <v>-0.02072000434028547</v>
+        <v>-0.0120660522560462</v>
       </c>
       <c r="DS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT16" t="n">
         <v>0</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.00792549065018068</v>
+        <v>-0</v>
       </c>
       <c r="DV16" t="n">
-        <v>0</v>
+        <v>-0.02753150294405674</v>
       </c>
       <c r="DW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX16" t="n">
-        <v>-0</v>
+        <v>0.03543987838714583</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.0154551054174392</v>
+        <v>0</v>
       </c>
       <c r="DZ16" t="n">
         <v>-0</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.01644695234764059</v>
+        <v>-0.03553913614500354</v>
       </c>
       <c r="EB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC16" t="n">
         <v>0</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.00904711666015953</v>
+        <v>-0</v>
       </c>
       <c r="EE16" t="n">
-        <v>-0</v>
+        <v>-0.00389983293429174</v>
       </c>
       <c r="EF16" t="n">
         <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>0</v>
+        <v>-0.01677086699223626</v>
       </c>
       <c r="EH16" t="n">
-        <v>-0.03619494953705912</v>
+        <v>0</v>
       </c>
       <c r="EI16" t="n">
         <v>0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>-0.0471261859910618</v>
+        <v>0.04077756089304283</v>
       </c>
       <c r="EK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.04973632231281504</v>
+        <v>0</v>
       </c>
       <c r="EN16" t="n">
-        <v>0</v>
+        <v>0.03414238126307257</v>
       </c>
       <c r="EO16" t="n">
         <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>0</v>
+        <v>-0.04253841965994799</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.02407150332437792</v>
+        <v>0</v>
       </c>
       <c r="ER16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.0356401329055548</v>
+        <v>0.00399640592548153</v>
       </c>
       <c r="ET16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.0152675918697282</v>
+        <v>0</v>
       </c>
       <c r="EW16" t="n">
-        <v>-0</v>
+        <v>-0.03312829650822156</v>
       </c>
       <c r="EX16" t="n">
         <v>0</v>
       </c>
       <c r="EY16" t="n">
-        <v>0</v>
+        <v>-0.05108021272304407</v>
       </c>
       <c r="EZ16" t="n">
-        <v>-0.03752999174796351</v>
+        <v>-0</v>
       </c>
       <c r="FA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.001897096385869795</v>
+        <v>0.004538700633810942</v>
       </c>
       <c r="FC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.02702147226747817</v>
+        <v>0</v>
       </c>
       <c r="FF16" t="n">
-        <v>-0</v>
+        <v>0.01307609295759565</v>
       </c>
       <c r="FG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH16" t="n">
-        <v>-0</v>
+        <v>-0.03038568942240352</v>
       </c>
       <c r="FI16" t="n">
-        <v>-0.04814215325889717</v>
+        <v>-0</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.04313263756963599</v>
+        <v>-0.03112153645513354</v>
       </c>
       <c r="FL16" t="n">
         <v>-0</v>
@@ -9477,25 +9477,25 @@
         <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>-0.004731948650537392</v>
+        <v>0</v>
       </c>
       <c r="FO16" t="n">
-        <v>-0</v>
+        <v>0.001473710445730056</v>
       </c>
       <c r="FP16" t="n">
         <v>0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>-0</v>
+        <v>-0.0003192868229813104</v>
       </c>
       <c r="FR16" t="n">
-        <v>-0.001939161586829383</v>
+        <v>-0</v>
       </c>
       <c r="FS16" t="n">
         <v>-0</v>
       </c>
       <c r="FT16" t="n">
-        <v>-0.000451809878167194</v>
+        <v>0.0003966508852620474</v>
       </c>
       <c r="FU16" t="n">
         <v>0</v>
@@ -9504,84 +9504,84 @@
         <v>-0</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.007494765776931791</v>
+        <v>-0</v>
       </c>
       <c r="FX16" t="n">
-        <v>-0</v>
+        <v>0.009180574190004049</v>
       </c>
       <c r="FY16" t="n">
         <v>-0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0</v>
+        <v>-0.04586158199090658</v>
       </c>
       <c r="GA16" t="n">
-        <v>-0.004770291033999874</v>
+        <v>0</v>
       </c>
       <c r="GB16" t="n">
         <v>-0</v>
       </c>
       <c r="GC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE16" t="n">
         <v>-0</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.03464140136803376</v>
+        <v>0</v>
       </c>
       <c r="GG16" t="n">
-        <v>0</v>
+        <v>0.006595918572033141</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>-0.1338348978261612</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2412226599386527</v>
+        <v>0.08263894845971984</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5112577194451868</v>
+        <v>-0</v>
       </c>
       <c r="D17" t="n">
         <v>-0</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.03016744168969379</v>
+        <v>-0.01154699669892753</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-0.08444415598751591</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.2509142224594633</v>
+        <v>0.07361351381067802</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5331275806294147</v>
+        <v>-0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.03843567152084326</v>
+        <v>-0.1202295641571193</v>
       </c>
       <c r="O17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9590,52 +9590,52 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-0.01066840327067597</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.1339319851301728</v>
+        <v>0.07335312673787615</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08918102737578379</v>
+        <v>-0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.07693984521607826</v>
+        <v>0.105302223934785</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0</v>
+        <v>0.04000092375131312</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.1745308755662772</v>
+        <v>0.1311781051572902</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.05244503869809377</v>
+        <v>-0</v>
       </c>
       <c r="AE17" t="n">
         <v>-0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.02851901143043122</v>
+        <v>0.05008256604567302</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
         <v>-0</v>
@@ -9647,19 +9647,19 @@
         <v>-0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>-0.01147586378543222</v>
       </c>
       <c r="AL17" t="n">
-        <v>-0.08907936324430445</v>
+        <v>0.02524903747548366</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.1195754938867025</v>
+        <v>-0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.0349536906345448</v>
+        <v>0.03547707329638132</v>
       </c>
       <c r="AP17" t="n">
         <v>0</v>
@@ -9668,58 +9668,58 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>-0.02088942516082826</v>
       </c>
       <c r="AU17" t="n">
-        <v>-0.2192659397884427</v>
+        <v>0.1686198193492331</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.1402611546815029</v>
+        <v>-0</v>
       </c>
       <c r="AW17" t="n">
         <v>-0</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.1048582541073624</v>
+        <v>0.2198607508625486</v>
       </c>
       <c r="AY17" t="n">
         <v>-0</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC17" t="n">
-        <v>-0</v>
+        <v>-0.04279524592258969</v>
       </c>
       <c r="BD17" t="n">
-        <v>-0.1137159997737937</v>
+        <v>-0.01101905933117242</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.1717213718315127</v>
+        <v>0</v>
       </c>
       <c r="BF17" t="n">
         <v>0</v>
       </c>
       <c r="BG17" t="n">
-        <v>-0.1539213545084051</v>
+        <v>-0.1370147441331965</v>
       </c>
       <c r="BH17" t="n">
         <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ17" t="n">
         <v>0</v>
@@ -9728,22 +9728,22 @@
         <v>-0</v>
       </c>
       <c r="BL17" t="n">
-        <v>-0</v>
+        <v>-0.03804444172611849</v>
       </c>
       <c r="BM17" t="n">
-        <v>-0.01397302338884326</v>
+        <v>0.04864576759465348</v>
       </c>
       <c r="BN17" t="n">
-        <v>-0.09053926820485932</v>
+        <v>0</v>
       </c>
       <c r="BO17" t="n">
         <v>-0</v>
       </c>
       <c r="BP17" t="n">
-        <v>-0.0678713124472631</v>
+        <v>0.07978456692799515</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR17" t="n">
         <v>-0</v>
@@ -9752,25 +9752,25 @@
         <v>-0</v>
       </c>
       <c r="BT17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU17" t="n">
-        <v>0</v>
+        <v>0.006066807748124372</v>
       </c>
       <c r="BV17" t="n">
-        <v>-0.09036867215372847</v>
+        <v>0.08840306755869493</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.1853991729445726</v>
+        <v>-0</v>
       </c>
       <c r="BX17" t="n">
         <v>-0</v>
       </c>
       <c r="BY17" t="n">
-        <v>-0.01400943013164364</v>
+        <v>0.07905192921183499</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA17" t="n">
         <v>0</v>
@@ -9779,28 +9779,28 @@
         <v>-0</v>
       </c>
       <c r="CC17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD17" t="n">
-        <v>0</v>
+        <v>0.02716864490401043</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.0553851382759606</v>
+        <v>-0.01089520915294411</v>
       </c>
       <c r="CF17" t="n">
-        <v>-0.0716343453273362</v>
+        <v>-0</v>
       </c>
       <c r="CG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.003058280026615562</v>
+        <v>-0.009448706022791208</v>
       </c>
       <c r="CI17" t="n">
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK17" t="n">
         <v>-0</v>
@@ -9809,22 +9809,22 @@
         <v>-0</v>
       </c>
       <c r="CM17" t="n">
-        <v>0</v>
+        <v>-0.03708420063936621</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.02388610188529625</v>
+        <v>-0.07928632718024156</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.07592417928660061</v>
+        <v>-0</v>
       </c>
       <c r="CP17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.1186351345975896</v>
+        <v>-0.08621854434735013</v>
       </c>
       <c r="CR17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS17" t="n">
         <v>0</v>
@@ -9836,46 +9836,46 @@
         <v>0</v>
       </c>
       <c r="CV17" t="n">
-        <v>-0</v>
+        <v>0.0160188097356615</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.03543590635382243</v>
+        <v>-0.002319532205424769</v>
       </c>
       <c r="CX17" t="n">
-        <v>-0.07532804191289119</v>
+        <v>0</v>
       </c>
       <c r="CY17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.02706431566327297</v>
+        <v>0.006136856092353616</v>
       </c>
       <c r="DA17" t="n">
         <v>-0</v>
       </c>
       <c r="DB17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD17" t="n">
         <v>0</v>
       </c>
       <c r="DE17" t="n">
-        <v>-0</v>
+        <v>0.04732419591393504</v>
       </c>
       <c r="DF17" t="n">
-        <v>0.1208608815798918</v>
+        <v>-0.09233885632789048</v>
       </c>
       <c r="DG17" t="n">
-        <v>0.01987519313360387</v>
+        <v>-0</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>-0.02655254493240779</v>
+        <v>0.001716176709267077</v>
       </c>
       <c r="DJ17" t="n">
         <v>0</v>
@@ -9890,19 +9890,19 @@
         <v>-0</v>
       </c>
       <c r="DN17" t="n">
-        <v>-0</v>
+        <v>0.03926442950834368</v>
       </c>
       <c r="DO17" t="n">
-        <v>-0.03444772196235808</v>
+        <v>-0.01782732862654791</v>
       </c>
       <c r="DP17" t="n">
-        <v>0.04666044262780525</v>
+        <v>-0</v>
       </c>
       <c r="DQ17" t="n">
         <v>-0</v>
       </c>
       <c r="DR17" t="n">
-        <v>-0.06220229391551557</v>
+        <v>0.08345842215410899</v>
       </c>
       <c r="DS17" t="n">
         <v>-0</v>
@@ -9911,58 +9911,58 @@
         <v>0</v>
       </c>
       <c r="DU17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV17" t="n">
         <v>-0</v>
       </c>
       <c r="DW17" t="n">
-        <v>-0</v>
+        <v>-0.01312801518793354</v>
       </c>
       <c r="DX17" t="n">
-        <v>0.002674351905692717</v>
+        <v>0.02986044600754936</v>
       </c>
       <c r="DY17" t="n">
-        <v>0.0378189500366051</v>
+        <v>0</v>
       </c>
       <c r="DZ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA17" t="n">
-        <v>-0.04396177373513559</v>
+        <v>-0.002060045468957204</v>
       </c>
       <c r="EB17" t="n">
         <v>0</v>
       </c>
       <c r="EC17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE17" t="n">
         <v>-0</v>
       </c>
       <c r="EF17" t="n">
-        <v>-0</v>
+        <v>-0.01749742304653857</v>
       </c>
       <c r="EG17" t="n">
-        <v>0.05981416732825211</v>
+        <v>0.05020283518573707</v>
       </c>
       <c r="EH17" t="n">
-        <v>-0.04705471938722437</v>
+        <v>-0</v>
       </c>
       <c r="EI17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ17" t="n">
-        <v>-0.03172647029590829</v>
+        <v>-0.005245538400809677</v>
       </c>
       <c r="EK17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM17" t="n">
         <v>-0</v>
@@ -9971,22 +9971,22 @@
         <v>-0</v>
       </c>
       <c r="EO17" t="n">
-        <v>0</v>
+        <v>-0.006678501024510885</v>
       </c>
       <c r="EP17" t="n">
-        <v>0.1011243907985304</v>
+        <v>-0.05934440909241838</v>
       </c>
       <c r="EQ17" t="n">
-        <v>-0.08904637428683373</v>
+        <v>-0</v>
       </c>
       <c r="ER17" t="n">
         <v>0</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.08755708633674972</v>
+        <v>-0.001052149874898258</v>
       </c>
       <c r="ET17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU17" t="n">
         <v>0</v>
@@ -9995,28 +9995,28 @@
         <v>-0</v>
       </c>
       <c r="EW17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX17" t="n">
-        <v>-0</v>
+        <v>0.02159097708579868</v>
       </c>
       <c r="EY17" t="n">
-        <v>0.02849269912409041</v>
+        <v>-0.01658425744736751</v>
       </c>
       <c r="EZ17" t="n">
-        <v>-0.08457535599293328</v>
+        <v>-0</v>
       </c>
       <c r="FA17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.02893611418744298</v>
+        <v>-0.01784032160685237</v>
       </c>
       <c r="FC17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE17" t="n">
         <v>-0</v>
@@ -10025,79 +10025,79 @@
         <v>-0</v>
       </c>
       <c r="FG17" t="n">
-        <v>0</v>
+        <v>0.03439140214710651</v>
       </c>
       <c r="FH17" t="n">
-        <v>0.07596834577325733</v>
+        <v>0.03463281537546917</v>
       </c>
       <c r="FI17" t="n">
-        <v>-0.1047993430590501</v>
+        <v>0</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.005864019964524778</v>
+        <v>-0.07943901003356045</v>
       </c>
       <c r="FL17" t="n">
         <v>-0</v>
       </c>
       <c r="FM17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP17" t="n">
-        <v>0</v>
+        <v>0.07400196149409533</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0.07723347421857259</v>
+        <v>-0.01319962537667771</v>
       </c>
       <c r="FR17" t="n">
-        <v>-0.008390796207322807</v>
+        <v>0</v>
       </c>
       <c r="FS17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.001485368555874533</v>
+        <v>-0.004024545422736414</v>
       </c>
       <c r="FU17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV17" t="n">
         <v>-0</v>
       </c>
       <c r="FW17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX17" t="n">
         <v>-0</v>
       </c>
       <c r="FY17" t="n">
-        <v>-0</v>
+        <v>0.01480819807646421</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0.01068341350511199</v>
+        <v>-0.04855946916133372</v>
       </c>
       <c r="GA17" t="n">
-        <v>0.1051517200827501</v>
+        <v>-0</v>
       </c>
       <c r="GB17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF17" t="n">
         <v>-0</v>
